--- a/biology/Médecine/Ménisque_articulaire/Ménisque_articulaire.xlsx
+++ b/biology/Médecine/Ménisque_articulaire/Ménisque_articulaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9nisque_articulaire</t>
+          <t>Ménisque_articulaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un ménisque articulaire est un fibrocartilage en forme de croissant qui s'interpose partiellement entre les os composant une jointure synoviale dans la cavité articulaire.
 Chez l'humain, il en existe deux dans l'articulation fémoro-tibiale : un latéral et un médial.
